--- a/doc/demo/demo.xlsx
+++ b/doc/demo/demo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fukuzawa/Takaki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C2D580-670D-AD49-9BAF-F56660F6C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00602E2-8A11-D042-8DD0-C131DAEB8988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16380" xr2:uid="{BB771233-F54A-D549-A6D1-DA7EF462C965}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16360" xr2:uid="{BB771233-F54A-D549-A6D1-DA7EF462C965}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="更新履歴" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>demo</t>
     <phoneticPr fontId="1"/>
@@ -77,6 +78,31 @@
   </si>
   <si>
     <t>hh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理名</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <rPh sb="0" eb="2">
+      <t>スウティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モゼィ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -462,7 +488,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -472,6 +498,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="2:5">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1">
         <v>1</v>
@@ -479,7 +513,9 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5">
@@ -489,7 +525,9 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5">
@@ -499,7 +537,9 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5">
@@ -509,7 +549,9 @@
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
@@ -519,7 +561,9 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
@@ -529,7 +573,9 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
@@ -539,7 +585,9 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
@@ -549,7 +597,9 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
@@ -559,7 +609,9 @@
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
@@ -569,11 +621,28 @@
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AABBB63-B02E-C742-A5D6-A6FDB242638C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>